--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed4/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.7704</v>
+        <v>8.331000000000007</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.2229</v>
+        <v>-22.09589999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>6.666300000000007</v>
+        <v>6.482800000000005</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.93829999999999</v>
+        <v>-11.9614</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.049900000000001</v>
+        <v>6.1548</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.06280000000002</v>
+        <v>-22.07240000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.47719999999997</v>
+        <v>-21.57149999999997</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.795</v>
+        <v>8.806599999999994</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.775499999999999</v>
+        <v>5.304600000000002</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.695600000000002</v>
+        <v>5.765800000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.8014</v>
+        <v>-21.83259999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.05499999999999</v>
+        <v>-12.09529999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.4054</v>
+        <v>-11.7221</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.98140000000001</v>
+        <v>-12.80590000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.841500000000005</v>
+        <v>9.930700000000007</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-22.10350000000001</v>
+        <v>-21.9699</v>
       </c>
       <c r="B35" t="n">
-        <v>4.749899999999998</v>
+        <v>4.9359</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.19529999999999</v>
+        <v>-12.91499999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.37840000000001</v>
+        <v>-11.59180000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.99670000000002</v>
+        <v>-12.96460000000001</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.79919999999998</v>
+        <v>-14.07449999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.805900000000003</v>
+        <v>5.652100000000005</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.056099999999999</v>
+        <v>5.732199999999999</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.8592</v>
+        <v>-11.8571</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.546899999999998</v>
+        <v>5.605999999999998</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.9799</v>
+        <v>-14.15089999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.18249999999999</v>
+        <v>-10.19049999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.821000000000001</v>
+        <v>5.406399999999996</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.660899999999997</v>
+        <v>5.403999999999997</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.607</v>
+        <v>-21.63709999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.47119999999998</v>
+        <v>-19.6372</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-21.75769999999999</v>
+        <v>-21.54509999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>5.400699999999998</v>
+        <v>5.594099999999997</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.572500000000003</v>
+        <v>9.712200000000003</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.87479999999999</v>
+        <v>-21.83869999999999</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.45329999999999</v>
+        <v>-11.349</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.54259999999998</v>
+        <v>-21.53539999999998</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.0229</v>
+        <v>-21.43630000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.6445</v>
+        <v>-10.50639999999999</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.772899999999996</v>
+        <v>5.628400000000002</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1863,7 +1863,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-11.77650000000001</v>
+        <v>-11.844</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.956300000000002</v>
+        <v>10.0205</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1905,7 +1905,7 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-12.59640000000001</v>
+        <v>-12.59510000000001</v>
       </c>
       <c r="D105" t="n">
         <v>-8.630000000000001</v>
